--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>yahu</t>
+  </si>
+  <si>
+    <t>Madam</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
@@ -462,6 +468,9 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -482,7 +491,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
